--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 16.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 16.xlsx_with_dialog_acts.xlsx
@@ -1047,12 +1047,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1590,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3392,12 +3392,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
